--- a/Civilworks cost/output2.xlsx
+++ b/Civilworks cost/output2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -1141,17 +1141,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P104">
         <f>SUM(P2:P103)</f>
         <v>139263634.75</v>
@@ -7246,9 +7246,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12711,13 +12711,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D110" sqref="C110:D110"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12767,7 +12775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12820,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12873,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12926,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12979,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13032,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13085,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13138,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13191,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13244,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13297,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13350,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13403,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13456,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13509,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13562,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13615,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13668,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13721,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -13774,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -13827,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13880,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13933,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13986,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14039,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14092,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14145,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14198,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14251,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14304,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14357,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14410,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14463,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14516,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14569,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14622,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14728,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -14781,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -14834,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14887,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14940,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14993,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -15046,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -15099,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15152,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -15205,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -15258,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -15311,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -15364,7 +15372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -15417,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -15470,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -15523,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -15576,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -15629,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -15682,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -15735,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -15788,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -15841,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15894,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -15947,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -16000,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -16053,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -16106,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -16159,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -16212,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -16265,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -16318,7 +16326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -16371,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -16424,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -16477,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16530,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16583,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -16636,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -16689,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -16742,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -16795,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -16848,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16901,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -16954,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17007,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17060,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -17113,7 +17121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -17166,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -17219,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -17272,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -17325,7 +17333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -17378,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17431,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17484,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17537,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17590,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17643,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17696,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17749,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17802,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17855,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17908,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17961,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -18014,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -18067,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -18120,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -18171,6 +18179,22 @@
       </c>
       <c r="Q103">
         <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <f>SUM(N2:N103)</f>
+        <v>2946079</v>
+      </c>
+      <c r="O104">
+        <f>SUM(O2:O103)</f>
+        <v>975195459.25999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <f>O104/100000</f>
+        <v>9751.9545925999992</v>
       </c>
     </row>
   </sheetData>
@@ -18182,11 +18206,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18236,7 +18265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18289,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18342,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18395,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18448,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18501,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18554,7 +18583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18607,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18660,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18713,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18766,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18819,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18872,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18925,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18978,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -19031,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -19084,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -19137,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -19190,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -19243,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19296,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19349,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19402,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19455,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19508,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19561,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19614,7 +19643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19667,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19720,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19773,7 +19802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19826,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19879,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19932,7 +19961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19985,7 +20014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20038,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20091,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -20144,7 +20173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20197,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20250,7 +20279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -20303,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -20356,7 +20385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -20409,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -20462,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -20515,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -20568,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -20621,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -20674,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -20727,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -20780,7 +20809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -20833,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20886,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -20939,7 +20968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -20992,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -21045,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -21098,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -21151,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -21204,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -21257,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -21310,7 +21339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -21363,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -21416,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -21469,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -21522,7 +21551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -21575,7 +21604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -21628,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -21681,7 +21710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -21734,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -21787,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -21840,7 +21869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21893,7 +21922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -21946,7 +21975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -21999,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -22052,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -22105,7 +22134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -22158,7 +22187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -22211,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -22264,7 +22293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -22317,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -22370,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -22423,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -22476,7 +22505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -22529,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -22582,7 +22611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -22635,7 +22664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22688,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -22741,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -22794,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -22847,7 +22876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -22900,7 +22929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -22953,7 +22982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -23006,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -23059,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -23112,7 +23141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -23165,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -23218,7 +23247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -23271,7 +23300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -23324,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -23377,7 +23406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -23430,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -23483,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -23536,7 +23565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -23589,7 +23618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -23651,16 +23680,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+    <sheetView topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
@@ -23728,7 +23758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23799,7 +23829,7 @@
         <v>638585</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23870,7 +23900,7 @@
         <v>455942</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -23941,7 +23971,7 @@
         <v>549211</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24012,7 +24042,7 @@
         <v>711031</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -24083,7 +24113,7 @@
         <v>1048364</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -24154,7 +24184,7 @@
         <v>1467691</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -24225,7 +24255,7 @@
         <v>635580</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -24296,7 +24326,7 @@
         <v>3960887</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -24367,7 +24397,7 @@
         <v>2061587</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -24438,7 +24468,7 @@
         <v>849606</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -24509,7 +24539,7 @@
         <v>2219979</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -24580,7 +24610,7 @@
         <v>2332094</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -24651,7 +24681,7 @@
         <v>1574309</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -24722,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -24793,7 +24823,7 @@
         <v>1874470</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -24864,7 +24894,7 @@
         <v>5350219.99</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -24935,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -25006,7 +25036,7 @@
         <v>437413</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -25077,7 +25107,7 @@
         <v>2975667</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -25148,7 +25178,7 @@
         <v>3352893</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -25219,7 +25249,7 @@
         <v>3362200</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -25290,7 +25320,7 @@
         <v>9004263</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -25361,7 +25391,7 @@
         <v>1284687</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -25432,7 +25462,7 @@
         <v>2882492.01</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -25503,7 +25533,7 @@
         <v>3556149</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -25574,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -25645,7 +25675,7 @@
         <v>236372</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -25716,7 +25746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -25787,7 +25817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -25858,7 +25888,7 @@
         <v>930082</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -25929,7 +25959,7 @@
         <v>2746384</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -26000,7 +26030,7 @@
         <v>6163305</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -26071,7 +26101,7 @@
         <v>364791</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -26142,7 +26172,7 @@
         <v>935778</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -26213,7 +26243,7 @@
         <v>2150856</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -26284,7 +26314,7 @@
         <v>2602548</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -26355,7 +26385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -26426,7 +26456,7 @@
         <v>4863889</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -26497,7 +26527,7 @@
         <v>1616869</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -26568,7 +26598,7 @@
         <v>5332769</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -26639,7 +26669,7 @@
         <v>4281078</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -26710,7 +26740,7 @@
         <v>4059146</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -26781,7 +26811,7 @@
         <v>1817224.99</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -26852,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26923,7 +26953,7 @@
         <v>1705759</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -26994,7 +27024,7 @@
         <v>3693075</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -27065,7 +27095,7 @@
         <v>9702408</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -27136,7 +27166,7 @@
         <v>2489886</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -27207,7 +27237,7 @@
         <v>6047579</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -27278,7 +27308,7 @@
         <v>13226106.75</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -27349,7 +27379,7 @@
         <v>4331071</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -27420,7 +27450,7 @@
         <v>28740</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -27491,7 +27521,7 @@
         <v>342118</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -27562,7 +27592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W56">
         <f>SUM(W2:W55)</f>
         <v>132253154.73999999</v>
@@ -27579,9 +27609,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
@@ -27649,7 +27679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27720,7 +27750,7 @@
         <v>4470090</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27791,7 +27821,7 @@
         <v>3191591.99</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27862,7 +27892,7 @@
         <v>3844476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27933,7 +27963,7 @@
         <v>4977219</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -28004,7 +28034,7 @@
         <v>7338547</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -28075,7 +28105,7 @@
         <v>10273837</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -28146,7 +28176,7 @@
         <v>4449060</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28217,7 +28247,7 @@
         <v>27726204</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28288,7 +28318,7 @@
         <v>14431113</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28359,7 +28389,7 @@
         <v>5947237</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -28430,7 +28460,7 @@
         <v>15539857</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -28501,7 +28531,7 @@
         <v>16324656</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -28572,7 +28602,7 @@
         <v>11020160</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -28643,7 +28673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -28714,7 +28744,7 @@
         <v>13121288</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -28785,7 +28815,7 @@
         <v>37451543</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -28856,7 +28886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -28927,7 +28957,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -28998,7 +29028,7 @@
         <v>20829671</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -29069,7 +29099,7 @@
         <v>23470256</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -29140,7 +29170,7 @@
         <v>23535403.010000002</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -29211,7 +29241,7 @@
         <v>63029835</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -29282,7 +29312,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -29353,7 +29383,7 @@
         <v>20177439</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -29424,7 +29454,7 @@
         <v>24893044</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -29495,7 +29525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -29566,7 +29596,7 @@
         <v>1654607</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -29637,7 +29667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -29708,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -29779,7 +29809,7 @@
         <v>6510571</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -29850,7 +29880,7 @@
         <v>19224689</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -29921,7 +29951,7 @@
         <v>43143134</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -29992,7 +30022,7 @@
         <v>2553536</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -30063,7 +30093,7 @@
         <v>6550442</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -30134,7 +30164,7 @@
         <v>15055988</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -30205,7 +30235,7 @@
         <v>18217838</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -30276,7 +30306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -30347,7 +30377,7 @@
         <v>34047219</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -30418,7 +30448,7 @@
         <v>11318083</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -30489,7 +30519,7 @@
         <v>37329382</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -30560,7 +30590,7 @@
         <v>29967543</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -30631,7 +30661,7 @@
         <v>28414019</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -30702,7 +30732,7 @@
         <v>12720574</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -30773,7 +30803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -30844,7 +30874,7 @@
         <v>11940309</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -30915,7 +30945,7 @@
         <v>25851523.010000002</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -30986,7 +31016,7 @@
         <v>67916859</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -31057,7 +31087,7 @@
         <v>17429204</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -31128,7 +31158,7 @@
         <v>42333045</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -31199,7 +31229,7 @@
         <v>92582744.25</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -31270,7 +31300,7 @@
         <v>30317495</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -31341,7 +31371,7 @@
         <v>196065</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31412,7 +31442,7 @@
         <v>2750014</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
